--- a/output2/【河洛話注音】金剛般若波羅蜜經004.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經004.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3BA2D2E-D3BF-4F81-861A-65DBC6C96980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{599F3F32-5C6D-4550-A84E-3B39D58762CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="31875" windowHeight="11295" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -2797,6 +2797,9 @@
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2813,9 +2816,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3570,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -3628,7 +3628,7 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="98" t="s">
+      <c r="V3" s="99" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="99"/>
+      <c r="V4" s="100"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -3700,7 +3700,7 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="80"/>
       <c r="S5" s="94"/>
-      <c r="V5" s="99"/>
+      <c r="V5" s="100"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -3735,7 +3735,7 @@
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="99"/>
+      <c r="V6" s="100"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -3756,7 +3756,7 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="100"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="R8" s="84"/>
       <c r="S8" s="93"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="100"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="100"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="R10" s="85"/>
       <c r="S10" s="96"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="100"/>
     </row>
     <row r="11" spans="2:22" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -3906,7 +3906,7 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="100"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -3952,7 +3952,7 @@
         <v>284</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="99"/>
+      <c r="V12" s="100"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -4005,7 +4005,7 @@
         <v>227</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="100"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -4051,7 +4051,7 @@
         <v>285</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="100"/>
     </row>
     <row r="15" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -4071,7 +4071,7 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="100"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
@@ -4111,7 +4111,7 @@
         <v>276</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="100"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -4139,7 +4139,7 @@
       <c r="J17" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="K17" s="104" t="s">
+      <c r="K17" s="98" t="s">
         <v>362</v>
       </c>
       <c r="L17" s="80" t="s">
@@ -4164,7 +4164,7 @@
         <v>223</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="99"/>
+      <c r="V17" s="100"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -4204,7 +4204,7 @@
         <v>277</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="99"/>
+      <c r="V18" s="100"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -4224,7 +4224,7 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="99"/>
+      <c r="V19" s="100"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -4268,7 +4268,7 @@
         <v>282</v>
       </c>
       <c r="S20" s="93"/>
-      <c r="V20" s="99"/>
+      <c r="V20" s="100"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -4321,7 +4321,7 @@
         <v>200</v>
       </c>
       <c r="S21" s="94"/>
-      <c r="V21" s="99"/>
+      <c r="V21" s="100"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -4365,7 +4365,7 @@
         <v>283</v>
       </c>
       <c r="S22" s="96"/>
-      <c r="V22" s="100"/>
+      <c r="V22" s="101"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -4444,7 +4444,7 @@
       <c r="E25" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="98" t="s">
         <v>215</v>
       </c>
       <c r="G25" s="80" t="s">
@@ -5109,7 +5109,7 @@
       <c r="H41" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="I41" s="104" t="s">
+      <c r="I41" s="98" t="s">
         <v>369</v>
       </c>
       <c r="J41" s="80" t="s">
@@ -9613,7 +9613,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -9631,7 +9631,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="102" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -9656,7 +9656,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="102"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -9676,7 +9676,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="102"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -9698,7 +9698,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="102"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9714,7 +9714,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="102"/>
+      <c r="I7" s="103"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9736,7 +9736,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="102"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9752,7 +9752,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="102"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -9774,7 +9774,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="102"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9790,7 +9790,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="102"/>
+      <c r="I9" s="103"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9812,7 +9812,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="103"/>
+      <c r="I10" s="104"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="102" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -9869,7 +9869,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="102" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -9893,7 +9893,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -9913,7 +9913,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="102"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -9933,7 +9933,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="102"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9947,7 +9947,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="102"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9967,7 +9967,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="102"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="102"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -10001,7 +10001,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="102"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -10015,7 +10015,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="102"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -10035,7 +10035,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -10049,7 +10049,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="103"/>
+      <c r="I16" s="104"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
